--- a/biology/Botanique/Houstonia_pusilla/Houstonia_pusilla.xlsx
+++ b/biology/Botanique/Houstonia_pusilla/Houstonia_pusilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Houstonia pusilla  est une espèce de plantes de la famille des Rubiaceae qui est originaire des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Houstonia pusilla est commune dans le Sud-Est et le centre des États-Unis. Elle se rencontre du Texas à la Floride et, vers le nord, jusqu'au Delaware et au Dakota du Sud. Il y a également une population isolée à Pima Comté en Arizona.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Houstonia pusilla est une plante basse de 15 cm de hauteur voire moins. Sa fleur à quatre lobes et au centre jaune mesure de 6,4 à 8,4 mm de diamètre. La plante a une forme de rosette centrale et un feuillage herbacé vert avec des feuilles jusqu'à 13 mm de long. Les feuilles sont opposées et chaque fleur pousse à partir d'une seule branche poussant à l'aisselle des feuilles. 
 Cette plante a besoin de plein soleil et fleurit au printemps et au début de l'été. 
